--- a/data/eie_5ws_template_v3_20230828.xlsx
+++ b/data/eie_5ws_template_v3_20230828.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanywng\Documents\R\eie_wg_5ws\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED885AD-EAD1-463C-AD70-BDA9DAC69832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C8A87F-6833-469F-A355-076415D52E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3502,6 +3502,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3518,21 +3533,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -32615,11 +32615,11 @@
   <dimension ref="A1:AK36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F4" sqref="E4:F4"/>
       <selection pane="topRight" activeCell="F4" sqref="E4:F4"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="E4:F4"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -32652,30 +32652,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="86" t="s">
         <v>752</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="24"/>
       <c r="X1" s="24"/>
       <c r="Y1" s="24"/>
@@ -32694,36 +32694,36 @@
     </row>
     <row r="2" spans="1:37" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="76" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="78" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="77" t="s">
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="80" t="s">
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="87" t="s">
         <v>758</v>
       </c>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
       <c r="V2" s="27"/>
     </row>
     <row r="3" spans="1:37" s="26" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -32807,7 +32807,7 @@
       <c r="J4" s="45"/>
       <c r="K4" s="51"/>
       <c r="L4" s="73"/>
-      <c r="M4" s="51"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="59"/>
       <c r="O4" s="58"/>
       <c r="P4" s="50"/>
@@ -32836,7 +32836,7 @@
       <c r="J5" s="45"/>
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="59"/>
       <c r="O5" s="58"/>
       <c r="P5" s="50"/>
@@ -32865,7 +32865,7 @@
       <c r="J6" s="45"/>
       <c r="K6" s="51"/>
       <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
+      <c r="M6" s="59"/>
       <c r="N6" s="59"/>
       <c r="O6" s="58"/>
       <c r="P6" s="50"/>
@@ -32894,7 +32894,7 @@
       <c r="J7" s="45"/>
       <c r="K7" s="51"/>
       <c r="L7" s="70"/>
-      <c r="M7" s="51"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="59"/>
       <c r="O7" s="58"/>
       <c r="P7" s="50"/>
@@ -32923,7 +32923,7 @@
       <c r="J8" s="45"/>
       <c r="K8" s="51"/>
       <c r="L8" s="70"/>
-      <c r="M8" s="51"/>
+      <c r="M8" s="59"/>
       <c r="N8" s="59"/>
       <c r="O8" s="58"/>
       <c r="P8" s="50"/>
@@ -32952,7 +32952,7 @@
       <c r="J9" s="45"/>
       <c r="K9" s="51"/>
       <c r="L9" s="70"/>
-      <c r="M9" s="51"/>
+      <c r="M9" s="59"/>
       <c r="N9" s="59"/>
       <c r="O9" s="58"/>
       <c r="P9" s="50"/>
@@ -32981,7 +32981,7 @@
       <c r="J10" s="45"/>
       <c r="K10" s="51"/>
       <c r="L10" s="70"/>
-      <c r="M10" s="51"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="59"/>
       <c r="O10" s="58"/>
       <c r="P10" s="50"/>
@@ -33010,7 +33010,7 @@
       <c r="J11" s="45"/>
       <c r="K11" s="51"/>
       <c r="L11" s="70"/>
-      <c r="M11" s="51"/>
+      <c r="M11" s="59"/>
       <c r="N11" s="59"/>
       <c r="O11" s="58"/>
       <c r="P11" s="50"/>
@@ -33039,7 +33039,7 @@
       <c r="J12" s="45"/>
       <c r="K12" s="51"/>
       <c r="L12" s="70"/>
-      <c r="M12" s="51"/>
+      <c r="M12" s="59"/>
       <c r="N12" s="59"/>
       <c r="O12" s="58"/>
       <c r="P12" s="50"/>
@@ -33068,7 +33068,7 @@
       <c r="J13" s="45"/>
       <c r="K13" s="51"/>
       <c r="L13" s="70"/>
-      <c r="M13" s="51"/>
+      <c r="M13" s="59"/>
       <c r="N13" s="59"/>
       <c r="O13" s="58"/>
       <c r="P13" s="50"/>
@@ -33097,7 +33097,7 @@
       <c r="J14" s="45"/>
       <c r="K14" s="51"/>
       <c r="L14" s="70"/>
-      <c r="M14" s="51"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="59"/>
       <c r="O14" s="58"/>
       <c r="P14" s="50"/>
@@ -33126,7 +33126,7 @@
       <c r="J15" s="45"/>
       <c r="K15" s="51"/>
       <c r="L15" s="70"/>
-      <c r="M15" s="51"/>
+      <c r="M15" s="59"/>
       <c r="N15" s="59"/>
       <c r="O15" s="58"/>
       <c r="P15" s="50"/>
@@ -33155,7 +33155,7 @@
       <c r="J16" s="45"/>
       <c r="K16" s="51"/>
       <c r="L16" s="70"/>
-      <c r="M16" s="51"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="59"/>
       <c r="O16" s="58"/>
       <c r="P16" s="50"/>
@@ -33184,7 +33184,7 @@
       <c r="J17" s="45"/>
       <c r="K17" s="51"/>
       <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="59"/>
       <c r="O17" s="58"/>
       <c r="P17" s="50"/>
@@ -33213,7 +33213,7 @@
       <c r="J18" s="45"/>
       <c r="K18" s="51"/>
       <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
+      <c r="M18" s="59"/>
       <c r="N18" s="59"/>
       <c r="O18" s="58"/>
       <c r="P18" s="50"/>
@@ -33242,7 +33242,7 @@
       <c r="J19" s="45"/>
       <c r="K19" s="51"/>
       <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
+      <c r="M19" s="59"/>
       <c r="N19" s="59"/>
       <c r="O19" s="58"/>
       <c r="P19" s="50"/>
@@ -33271,7 +33271,7 @@
       <c r="J20" s="45"/>
       <c r="K20" s="51"/>
       <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
+      <c r="M20" s="59"/>
       <c r="N20" s="59"/>
       <c r="O20" s="58"/>
       <c r="P20" s="50"/>
@@ -33300,7 +33300,7 @@
       <c r="J21" s="45"/>
       <c r="K21" s="51"/>
       <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="59"/>
       <c r="O21" s="58"/>
       <c r="P21" s="50"/>
@@ -33329,7 +33329,7 @@
       <c r="J22" s="45"/>
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="M22" s="59"/>
       <c r="N22" s="59"/>
       <c r="O22" s="58"/>
       <c r="P22" s="50"/>
@@ -33358,7 +33358,7 @@
       <c r="J23" s="45"/>
       <c r="K23" s="51"/>
       <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
+      <c r="M23" s="59"/>
       <c r="N23" s="59"/>
       <c r="O23" s="58"/>
       <c r="P23" s="50"/>
@@ -33387,7 +33387,7 @@
       <c r="J24" s="45"/>
       <c r="K24" s="51"/>
       <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="59"/>
       <c r="O24" s="58"/>
       <c r="P24" s="50"/>
@@ -33416,7 +33416,7 @@
       <c r="J25" s="45"/>
       <c r="K25" s="51"/>
       <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
+      <c r="M25" s="59"/>
       <c r="N25" s="59"/>
       <c r="O25" s="58"/>
       <c r="P25" s="50"/>
@@ -33445,7 +33445,7 @@
       <c r="J26" s="45"/>
       <c r="K26" s="51"/>
       <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="59"/>
       <c r="O26" s="58"/>
       <c r="P26" s="50"/>
@@ -33474,7 +33474,7 @@
       <c r="J27" s="45"/>
       <c r="K27" s="51"/>
       <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
+      <c r="M27" s="59"/>
       <c r="N27" s="59"/>
       <c r="O27" s="58"/>
       <c r="P27" s="50"/>
@@ -33503,7 +33503,7 @@
       <c r="J28" s="45"/>
       <c r="K28" s="51"/>
       <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="59"/>
       <c r="O28" s="58"/>
       <c r="P28" s="50"/>
@@ -33532,7 +33532,7 @@
       <c r="J29" s="45"/>
       <c r="K29" s="51"/>
       <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
+      <c r="M29" s="59"/>
       <c r="N29" s="59"/>
       <c r="O29" s="58"/>
       <c r="P29" s="50"/>
@@ -33562,16 +33562,16 @@
       <c r="I30" s="49"/>
       <c r="J30" s="45"/>
       <c r="K30" s="45"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="88"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="82"/>
       <c r="N30" s="59"/>
       <c r="O30" s="58"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
       <c r="R30" s="52"/>
       <c r="S30" s="52"/>
       <c r="T30" s="46"/>
-      <c r="U30" s="86">
+      <c r="U30" s="80">
         <f>SUM(Main[[#This Row],[Boys]:[Women +18]])</f>
         <v>0</v>
       </c>
@@ -33630,18 +33630,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="779" yWindow="729" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="779" yWindow="729" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4A68F527-2A9B-4D09-BDA4-7A4BDBC342AA}">
           <x14:formula1>
             <xm:f>List!$B$2:$B$13</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A30</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A05B0B7-DF10-4248-8B20-4DE6A63625D1}">
-          <x14:formula1>
-            <xm:f>List!$H$2:$H$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>N4:N30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71EF8F90-BB25-45EA-9D03-962B30B4BF6D}">
           <x14:formula1>
@@ -33673,6 +33667,18 @@
           </x14:formula1>
           <xm:sqref>F4:F30</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A05B0B7-DF10-4248-8B20-4DE6A63625D1}">
+          <x14:formula1>
+            <xm:f>List!$H$4:$H$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>N5:N30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D5AEE2E0-33B6-49DF-8C12-B935097F2A94}">
+          <x14:formula1>
+            <xm:f>List!$H$2:$H$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>N4</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -33684,7 +33690,7 @@
   <dimension ref="A1:AI974"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -33697,7 +33703,7 @@
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="9" max="9" width="47.07421875" customWidth="1"/>
     <col min="10" max="10" width="38.53515625" customWidth="1"/>
-    <col min="11" max="11" width="21.765625" style="84" customWidth="1"/>
+    <col min="11" max="11" width="21.765625" style="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -33731,7 +33737,7 @@
       <c r="J1" s="75" t="s">
         <v>743</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="76" t="s">
         <v>772</v>
       </c>
     </row>
@@ -33758,7 +33764,7 @@
         <v>44927</v>
       </c>
       <c r="H2" s="56">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>747</v>
@@ -33766,7 +33772,7 @@
       <c r="J2" s="17" t="s">
         <v>747</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="78" t="s">
         <v>773</v>
       </c>
     </row>
@@ -33793,7 +33799,7 @@
         <v>44958</v>
       </c>
       <c r="H3" s="56">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>744</v>
@@ -33801,7 +33807,7 @@
       <c r="J3" s="17" t="s">
         <v>744</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="78" t="s">
         <v>774</v>
       </c>
     </row>
@@ -33828,7 +33834,7 @@
         <v>44986</v>
       </c>
       <c r="H4" s="56">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>746</v>
@@ -33836,7 +33842,7 @@
       <c r="J4" s="17" t="s">
         <v>746</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="78" t="s">
         <v>775</v>
       </c>
     </row>
@@ -33863,7 +33869,7 @@
         <v>45017</v>
       </c>
       <c r="H5" s="56">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>771</v>
@@ -33871,7 +33877,7 @@
       <c r="J5" s="17" t="s">
         <v>745</v>
       </c>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="78" t="s">
         <v>776</v>
       </c>
     </row>
@@ -33895,7 +33901,7 @@
         <v>45047</v>
       </c>
       <c r="H6" s="56">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>749</v>
@@ -33903,7 +33909,7 @@
       <c r="J6" s="17" t="s">
         <v>749</v>
       </c>
-      <c r="K6" s="84" t="s">
+      <c r="K6" s="78" t="s">
         <v>777</v>
       </c>
     </row>
@@ -33924,7 +33930,7 @@
         <v>45078</v>
       </c>
       <c r="H7" s="56">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>750</v>
@@ -33932,7 +33938,7 @@
       <c r="J7" s="17" t="s">
         <v>750</v>
       </c>
-      <c r="K7" s="84" t="s">
+      <c r="K7" s="78" t="s">
         <v>778</v>
       </c>
     </row>
@@ -33954,7 +33960,7 @@
         <v>45108</v>
       </c>
       <c r="H8" s="56">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>766</v>
@@ -33962,7 +33968,7 @@
       <c r="J8" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="K8" s="84" t="s">
+      <c r="K8" s="78" t="s">
         <v>779</v>
       </c>
     </row>
@@ -33984,7 +33990,7 @@
         <v>45139</v>
       </c>
       <c r="H9" s="56">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>769</v>
@@ -33992,7 +33998,7 @@
       <c r="J9" s="17" t="s">
         <v>749</v>
       </c>
-      <c r="K9" s="84" t="s">
+      <c r="K9" s="78" t="s">
         <v>780</v>
       </c>
     </row>
@@ -34012,7 +34018,7 @@
         <v>45170</v>
       </c>
       <c r="H10" s="56">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>768</v>
@@ -34020,7 +34026,7 @@
       <c r="J10" s="17" t="s">
         <v>749</v>
       </c>
-      <c r="K10" s="84" t="s">
+      <c r="K10" s="78" t="s">
         <v>781</v>
       </c>
     </row>
@@ -34040,7 +34046,7 @@
         <v>45200</v>
       </c>
       <c r="H11" s="56">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>767</v>
@@ -34048,7 +34054,7 @@
       <c r="J11" s="17" t="s">
         <v>749</v>
       </c>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="78" t="s">
         <v>782</v>
       </c>
     </row>
@@ -34067,8 +34073,10 @@
       <c r="G12" s="56">
         <v>45231</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="K12" s="84" t="s">
+      <c r="H12" s="56">
+        <v>45231</v>
+      </c>
+      <c r="K12" s="78" t="s">
         <v>783</v>
       </c>
     </row>
@@ -34085,8 +34093,10 @@
       <c r="G13" s="56">
         <v>45261</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="K13" s="84" t="s">
+      <c r="H13" s="56">
+        <v>45261</v>
+      </c>
+      <c r="K13" s="78" t="s">
         <v>784</v>
       </c>
     </row>
@@ -34102,7 +34112,7 @@
       <c r="H14" s="56"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="83" t="s">
+      <c r="K14" s="77" t="s">
         <v>785</v>
       </c>
     </row>
@@ -34118,7 +34128,7 @@
       <c r="H15" s="56"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="83" t="s">
+      <c r="K15" s="77" t="s">
         <v>786</v>
       </c>
     </row>
@@ -34132,7 +34142,7 @@
       <c r="H16" s="56"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="83" t="s">
+      <c r="K16" s="77" t="s">
         <v>787</v>
       </c>
     </row>
@@ -34146,7 +34156,7 @@
       <c r="H17" s="56"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="83" t="s">
+      <c r="K17" s="77" t="s">
         <v>788</v>
       </c>
       <c r="L17" s="9"/>
@@ -34184,7 +34194,7 @@
       <c r="H18" s="56"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="83" t="s">
+      <c r="K18" s="77" t="s">
         <v>789</v>
       </c>
       <c r="L18" s="9"/>
@@ -34222,7 +34232,7 @@
       <c r="H19" s="56"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="83" t="s">
+      <c r="K19" s="77" t="s">
         <v>790</v>
       </c>
       <c r="L19" s="9"/>
@@ -34259,7 +34269,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="56"/>
       <c r="I20" s="9"/>
-      <c r="K20" s="84" t="s">
+      <c r="K20" s="78" t="s">
         <v>791</v>
       </c>
     </row>
@@ -34274,7 +34284,7 @@
       <c r="H21" s="56"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="83" t="s">
+      <c r="K21" s="77" t="s">
         <v>792</v>
       </c>
       <c r="L21" s="9"/>
@@ -34290,7 +34300,7 @@
       <c r="H22" s="56"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="83" t="s">
+      <c r="K22" s="77" t="s">
         <v>793</v>
       </c>
       <c r="L22" s="9"/>
@@ -34306,7 +34316,7 @@
       <c r="H23" s="56"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="83" t="s">
+      <c r="K23" s="77" t="s">
         <v>794</v>
       </c>
       <c r="L23" s="9"/>
@@ -34320,7 +34330,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="56"/>
       <c r="I24" s="9"/>
-      <c r="K24" s="84" t="s">
+      <c r="K24" s="78" t="s">
         <v>795</v>
       </c>
     </row>
@@ -34333,7 +34343,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="56"/>
       <c r="I25" s="9"/>
-      <c r="K25" s="84" t="s">
+      <c r="K25" s="78" t="s">
         <v>796</v>
       </c>
     </row>
@@ -34344,7 +34354,7 @@
       <c r="B26" s="54"/>
       <c r="E26" s="17"/>
       <c r="H26" s="57"/>
-      <c r="K26" s="84" t="s">
+      <c r="K26" s="78" t="s">
         <v>797</v>
       </c>
     </row>
@@ -34355,7 +34365,7 @@
       <c r="B27" s="54"/>
       <c r="E27" s="17"/>
       <c r="H27" s="57"/>
-      <c r="K27" s="84" t="s">
+      <c r="K27" s="78" t="s">
         <v>798</v>
       </c>
     </row>
@@ -34366,7 +34376,7 @@
       <c r="B28" s="54"/>
       <c r="E28" s="17"/>
       <c r="H28" s="57"/>
-      <c r="K28" s="84" t="s">
+      <c r="K28" s="78" t="s">
         <v>799</v>
       </c>
     </row>
@@ -34376,7 +34386,7 @@
       </c>
       <c r="B29" s="54"/>
       <c r="E29" s="17"/>
-      <c r="K29" s="84" t="s">
+      <c r="K29" s="78" t="s">
         <v>800</v>
       </c>
     </row>
@@ -34386,7 +34396,7 @@
       </c>
       <c r="B30" s="54"/>
       <c r="E30" s="17"/>
-      <c r="K30" s="84" t="s">
+      <c r="K30" s="78" t="s">
         <v>801</v>
       </c>
     </row>
@@ -34396,7 +34406,7 @@
       </c>
       <c r="B31" s="54"/>
       <c r="E31" s="17"/>
-      <c r="K31" s="84" t="s">
+      <c r="K31" s="78" t="s">
         <v>717</v>
       </c>
     </row>
@@ -34406,7 +34416,7 @@
       </c>
       <c r="B32" s="54"/>
       <c r="E32" s="17"/>
-      <c r="K32" s="84" t="s">
+      <c r="K32" s="78" t="s">
         <v>802</v>
       </c>
     </row>
@@ -34416,7 +34426,7 @@
       </c>
       <c r="B33" s="54"/>
       <c r="E33" s="17"/>
-      <c r="K33" s="84" t="s">
+      <c r="K33" s="78" t="s">
         <v>803</v>
       </c>
     </row>
@@ -34426,7 +34436,7 @@
       </c>
       <c r="B34" s="54"/>
       <c r="E34" s="17"/>
-      <c r="K34" s="84" t="s">
+      <c r="K34" s="78" t="s">
         <v>804</v>
       </c>
     </row>
@@ -34436,7 +34446,7 @@
       </c>
       <c r="B35" s="54"/>
       <c r="E35" s="17"/>
-      <c r="K35" s="84" t="s">
+      <c r="K35" s="78" t="s">
         <v>805</v>
       </c>
     </row>
@@ -34446,7 +34456,7 @@
       </c>
       <c r="B36" s="54"/>
       <c r="E36" s="17"/>
-      <c r="K36" s="84" t="s">
+      <c r="K36" s="78" t="s">
         <v>806</v>
       </c>
     </row>
@@ -34456,7 +34466,7 @@
       </c>
       <c r="B37" s="54"/>
       <c r="E37" s="17"/>
-      <c r="K37" s="84" t="s">
+      <c r="K37" s="78" t="s">
         <v>807</v>
       </c>
     </row>
@@ -34466,7 +34476,7 @@
       </c>
       <c r="B38" s="54"/>
       <c r="E38" s="17"/>
-      <c r="K38" s="84" t="s">
+      <c r="K38" s="78" t="s">
         <v>808</v>
       </c>
     </row>
@@ -34476,7 +34486,7 @@
       </c>
       <c r="B39" s="54"/>
       <c r="E39" s="17"/>
-      <c r="K39" s="84" t="s">
+      <c r="K39" s="78" t="s">
         <v>809</v>
       </c>
     </row>
@@ -34486,7 +34496,7 @@
       </c>
       <c r="B40" s="54"/>
       <c r="E40" s="17"/>
-      <c r="K40" s="84" t="s">
+      <c r="K40" s="78" t="s">
         <v>810</v>
       </c>
     </row>
@@ -34496,7 +34506,7 @@
       </c>
       <c r="B41" s="54"/>
       <c r="E41" s="17"/>
-      <c r="K41" s="84" t="s">
+      <c r="K41" s="78" t="s">
         <v>811</v>
       </c>
     </row>
@@ -34506,7 +34516,7 @@
       </c>
       <c r="B42" s="54"/>
       <c r="E42" s="17"/>
-      <c r="K42" s="84" t="s">
+      <c r="K42" s="78" t="s">
         <v>812</v>
       </c>
     </row>
@@ -34516,7 +34526,7 @@
       </c>
       <c r="B43" s="54"/>
       <c r="E43" s="17"/>
-      <c r="K43" s="84" t="s">
+      <c r="K43" s="78" t="s">
         <v>813</v>
       </c>
     </row>
@@ -34526,7 +34536,7 @@
       </c>
       <c r="B44" s="54"/>
       <c r="E44" s="17"/>
-      <c r="K44" s="84" t="s">
+      <c r="K44" s="78" t="s">
         <v>814</v>
       </c>
     </row>
@@ -34536,7 +34546,7 @@
       </c>
       <c r="B45" s="54"/>
       <c r="E45" s="17"/>
-      <c r="K45" s="84" t="s">
+      <c r="K45" s="78" t="s">
         <v>815</v>
       </c>
     </row>
